--- a/public/DatakegiatanAdministrasi/kegiatan_administrasi.xlsx
+++ b/public/DatakegiatanAdministrasi/kegiatan_administrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atmajabagastia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9092C3B6-989F-1647-B0C3-58984FE3ED9D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2208931-9A69-7441-933E-96694E58A370}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24060" windowHeight="16560" xr2:uid="{15B542A3-7D55-44D5-90E1-04B8C88E8512}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t xml:space="preserve">Tanggal Akhir </t>
   </si>
   <si>
-    <t>Aktivitas 1</t>
-  </si>
-  <si>
-    <t>Aktivitas 2</t>
+    <t>Transaksi 3</t>
+  </si>
+  <si>
+    <t>Transaksi 2</t>
   </si>
 </sst>
 </file>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A64CF-19A1-4A2E-B3D4-D8496A498175}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45028</v>
+        <v>45027</v>
       </c>
       <c r="D2" s="1">
-        <v>45089</v>
+        <v>45080</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -454,18 +454,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>45029</v>
+        <v>45261</v>
       </c>
       <c r="D3" s="1">
-        <v>45090</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>45084</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/DatakegiatanAdministrasi/kegiatan_administrasi.xlsx
+++ b/public/DatakegiatanAdministrasi/kegiatan_administrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atmajabagastia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2208931-9A69-7441-933E-96694E58A370}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A725BE09-A328-0341-BF84-536C2A1B6A20}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24060" windowHeight="16560" xr2:uid="{15B542A3-7D55-44D5-90E1-04B8C88E8512}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t xml:space="preserve">Tanggal Akhir </t>
   </si>
   <si>
-    <t>Transaksi 3</t>
-  </si>
-  <si>
-    <t>Transaksi 2</t>
+    <t>kegiatan 1</t>
+  </si>
+  <si>
+    <t>kegiatan 2</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>45027</v>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>45261</v>
